--- a/Данные скачивания таблиц/Общая площадь жилых помещений, тысяч квадратных метров.xlsx
+++ b/Данные скачивания таблиц/Общая площадь жилых помещений, тысяч квадратных метров.xlsx
@@ -13,10 +13,128 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t>Городские округа:</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>Багратионовский</t>
+  </si>
+  <si>
+    <t>Балтийский</t>
+  </si>
+  <si>
+    <t>г. Калининград</t>
+  </si>
+  <si>
+    <t>Гвардейский</t>
+  </si>
+  <si>
+    <t>Гурьевский</t>
+  </si>
+  <si>
+    <t>Гусевский</t>
+  </si>
+  <si>
+    <t>Зеленоградский</t>
+  </si>
+  <si>
+    <t>Краснознаменский</t>
+  </si>
+  <si>
+    <t>Ладушкинский</t>
+  </si>
+  <si>
+    <t>Мамоновский</t>
+  </si>
+  <si>
+    <t>Неманский</t>
+  </si>
+  <si>
+    <t>Нестеровский</t>
+  </si>
+  <si>
+    <t>Озерский</t>
+  </si>
+  <si>
+    <t>Пионерский</t>
+  </si>
+  <si>
+    <t>Полесский</t>
+  </si>
+  <si>
+    <t>Правдинский</t>
+  </si>
+  <si>
+    <t>Светловский</t>
+  </si>
+  <si>
+    <t>Светлогорский</t>
+  </si>
+  <si>
+    <t>Славский</t>
+  </si>
+  <si>
+    <t>Советский</t>
+  </si>
+  <si>
+    <t>Черняховский</t>
+  </si>
+  <si>
+    <t>Янтарный</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +158,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +476,956 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>643</v>
+      </c>
+      <c r="C2">
+        <v>647</v>
+      </c>
+      <c r="D2">
+        <v>626</v>
+      </c>
+      <c r="E2">
+        <v>662</v>
+      </c>
+      <c r="F2">
+        <v>676</v>
+      </c>
+      <c r="G2">
+        <v>689</v>
+      </c>
+      <c r="H2">
+        <v>700</v>
+      </c>
+      <c r="I2">
+        <v>711</v>
+      </c>
+      <c r="J2">
+        <v>722</v>
+      </c>
+      <c r="K2">
+        <v>734</v>
+      </c>
+      <c r="L2">
+        <v>765</v>
+      </c>
+      <c r="M2">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>670</v>
+      </c>
+      <c r="C3">
+        <v>679</v>
+      </c>
+      <c r="D3">
+        <v>682</v>
+      </c>
+      <c r="E3">
+        <v>688</v>
+      </c>
+      <c r="F3">
+        <v>703</v>
+      </c>
+      <c r="G3">
+        <v>713</v>
+      </c>
+      <c r="H3">
+        <v>739</v>
+      </c>
+      <c r="I3">
+        <v>740</v>
+      </c>
+      <c r="J3">
+        <v>748</v>
+      </c>
+      <c r="K3">
+        <v>755</v>
+      </c>
+      <c r="L3">
+        <v>766</v>
+      </c>
+      <c r="M3">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>10982</v>
+      </c>
+      <c r="C4">
+        <v>11313</v>
+      </c>
+      <c r="D4">
+        <v>11720</v>
+      </c>
+      <c r="E4">
+        <v>12117</v>
+      </c>
+      <c r="F4">
+        <v>12726</v>
+      </c>
+      <c r="G4">
+        <v>13239</v>
+      </c>
+      <c r="H4">
+        <v>13627</v>
+      </c>
+      <c r="I4">
+        <v>12996</v>
+      </c>
+      <c r="J4">
+        <v>13495</v>
+      </c>
+      <c r="K4">
+        <v>15884</v>
+      </c>
+      <c r="L4">
+        <v>15686</v>
+      </c>
+      <c r="M4">
+        <v>15686</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>648</v>
+      </c>
+      <c r="C5">
+        <v>651</v>
+      </c>
+      <c r="D5">
+        <v>658</v>
+      </c>
+      <c r="E5">
+        <v>630</v>
+      </c>
+      <c r="F5">
+        <v>641</v>
+      </c>
+      <c r="G5">
+        <v>642</v>
+      </c>
+      <c r="H5">
+        <v>650</v>
+      </c>
+      <c r="I5">
+        <v>659</v>
+      </c>
+      <c r="J5">
+        <v>664</v>
+      </c>
+      <c r="K5">
+        <v>672</v>
+      </c>
+      <c r="L5">
+        <v>689</v>
+      </c>
+      <c r="M5">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>1473</v>
+      </c>
+      <c r="C6">
+        <v>1545</v>
+      </c>
+      <c r="D6">
+        <v>1652</v>
+      </c>
+      <c r="E6">
+        <v>1979</v>
+      </c>
+      <c r="F6">
+        <v>2349</v>
+      </c>
+      <c r="G6">
+        <v>2629</v>
+      </c>
+      <c r="H6">
+        <v>2841</v>
+      </c>
+      <c r="I6">
+        <v>3015</v>
+      </c>
+      <c r="J6">
+        <v>3201</v>
+      </c>
+      <c r="K6">
+        <v>3396</v>
+      </c>
+      <c r="L6">
+        <v>3734</v>
+      </c>
+      <c r="M6">
+        <v>3734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>694</v>
+      </c>
+      <c r="C7">
+        <v>715</v>
+      </c>
+      <c r="D7">
+        <v>766</v>
+      </c>
+      <c r="E7">
+        <v>772</v>
+      </c>
+      <c r="F7">
+        <v>783</v>
+      </c>
+      <c r="G7">
+        <v>784</v>
+      </c>
+      <c r="H7">
+        <v>790</v>
+      </c>
+      <c r="I7">
+        <v>797</v>
+      </c>
+      <c r="J7">
+        <v>790</v>
+      </c>
+      <c r="K7">
+        <v>794</v>
+      </c>
+      <c r="L7">
+        <v>801</v>
+      </c>
+      <c r="M7">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>679</v>
+      </c>
+      <c r="C8">
+        <v>885</v>
+      </c>
+      <c r="D8">
+        <v>1090</v>
+      </c>
+      <c r="E8">
+        <v>1108</v>
+      </c>
+      <c r="F8">
+        <v>1206</v>
+      </c>
+      <c r="G8">
+        <v>1326</v>
+      </c>
+      <c r="H8">
+        <v>1421</v>
+      </c>
+      <c r="I8">
+        <v>1540</v>
+      </c>
+      <c r="J8">
+        <v>1682</v>
+      </c>
+      <c r="K8">
+        <v>1825</v>
+      </c>
+      <c r="L8">
+        <v>2107</v>
+      </c>
+      <c r="M8">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>258</v>
+      </c>
+      <c r="C9">
+        <v>261</v>
+      </c>
+      <c r="D9">
+        <v>281</v>
+      </c>
+      <c r="E9">
+        <v>281</v>
+      </c>
+      <c r="F9">
+        <v>283</v>
+      </c>
+      <c r="G9">
+        <v>285</v>
+      </c>
+      <c r="H9">
+        <v>285</v>
+      </c>
+      <c r="I9">
+        <v>285</v>
+      </c>
+      <c r="J9">
+        <v>288</v>
+      </c>
+      <c r="K9">
+        <v>289</v>
+      </c>
+      <c r="L9">
+        <v>289</v>
+      </c>
+      <c r="M9">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>83</v>
+      </c>
+      <c r="C10">
+        <v>84</v>
+      </c>
+      <c r="D10">
+        <v>85</v>
+      </c>
+      <c r="E10">
+        <v>85</v>
+      </c>
+      <c r="F10">
+        <v>85</v>
+      </c>
+      <c r="G10">
+        <v>87</v>
+      </c>
+      <c r="H10">
+        <v>88</v>
+      </c>
+      <c r="I10">
+        <v>88</v>
+      </c>
+      <c r="J10">
+        <v>83</v>
+      </c>
+      <c r="K10">
+        <v>85</v>
+      </c>
+      <c r="L10">
+        <v>85</v>
+      </c>
+      <c r="M10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>172</v>
+      </c>
+      <c r="C11">
+        <v>173</v>
+      </c>
+      <c r="D11">
+        <v>175</v>
+      </c>
+      <c r="E11">
+        <v>175</v>
+      </c>
+      <c r="F11">
+        <v>182</v>
+      </c>
+      <c r="G11">
+        <v>184</v>
+      </c>
+      <c r="H11">
+        <v>186</v>
+      </c>
+      <c r="I11">
+        <v>189</v>
+      </c>
+      <c r="J11">
+        <v>189</v>
+      </c>
+      <c r="K11">
+        <v>193</v>
+      </c>
+      <c r="L11">
+        <v>206</v>
+      </c>
+      <c r="M11">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>470</v>
+      </c>
+      <c r="C12">
+        <v>471</v>
+      </c>
+      <c r="D12">
+        <v>472</v>
+      </c>
+      <c r="E12">
+        <v>469</v>
+      </c>
+      <c r="F12">
+        <v>470</v>
+      </c>
+      <c r="G12">
+        <v>466</v>
+      </c>
+      <c r="H12">
+        <v>467</v>
+      </c>
+      <c r="I12">
+        <v>466</v>
+      </c>
+      <c r="J12">
+        <v>467</v>
+      </c>
+      <c r="K12">
+        <v>468</v>
+      </c>
+      <c r="L12">
+        <v>470</v>
+      </c>
+      <c r="M12">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>327</v>
+      </c>
+      <c r="C13">
+        <v>329</v>
+      </c>
+      <c r="D13">
+        <v>353</v>
+      </c>
+      <c r="E13">
+        <v>353</v>
+      </c>
+      <c r="F13">
+        <v>354</v>
+      </c>
+      <c r="G13">
+        <v>355</v>
+      </c>
+      <c r="H13">
+        <v>353</v>
+      </c>
+      <c r="I13">
+        <v>354</v>
+      </c>
+      <c r="J13">
+        <v>360</v>
+      </c>
+      <c r="K13">
+        <v>362</v>
+      </c>
+      <c r="L13">
+        <v>415</v>
+      </c>
+      <c r="M13">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>329</v>
+      </c>
+      <c r="C14">
+        <v>329</v>
+      </c>
+      <c r="D14">
+        <v>329</v>
+      </c>
+      <c r="E14">
+        <v>334</v>
+      </c>
+      <c r="F14">
+        <v>333</v>
+      </c>
+      <c r="G14">
+        <v>335</v>
+      </c>
+      <c r="H14">
+        <v>338</v>
+      </c>
+      <c r="I14">
+        <v>338</v>
+      </c>
+      <c r="J14">
+        <v>338</v>
+      </c>
+      <c r="K14">
+        <v>336</v>
+      </c>
+      <c r="L14">
+        <v>340</v>
+      </c>
+      <c r="M14">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>324</v>
+      </c>
+      <c r="C15">
+        <v>292</v>
+      </c>
+      <c r="D15">
+        <v>302</v>
+      </c>
+      <c r="E15">
+        <v>329</v>
+      </c>
+      <c r="F15">
+        <v>349</v>
+      </c>
+      <c r="G15">
+        <v>373</v>
+      </c>
+      <c r="H15">
+        <v>391</v>
+      </c>
+      <c r="I15">
+        <v>404</v>
+      </c>
+      <c r="J15">
+        <v>415</v>
+      </c>
+      <c r="K15">
+        <v>426</v>
+      </c>
+      <c r="L15">
+        <v>444</v>
+      </c>
+      <c r="M15">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>415</v>
+      </c>
+      <c r="C16">
+        <v>416</v>
+      </c>
+      <c r="D16">
+        <v>415</v>
+      </c>
+      <c r="E16">
+        <v>416</v>
+      </c>
+      <c r="F16">
+        <v>417</v>
+      </c>
+      <c r="G16">
+        <v>419</v>
+      </c>
+      <c r="H16">
+        <v>420</v>
+      </c>
+      <c r="I16">
+        <v>424</v>
+      </c>
+      <c r="J16">
+        <v>427</v>
+      </c>
+      <c r="K16">
+        <v>436</v>
+      </c>
+      <c r="L16">
+        <v>443</v>
+      </c>
+      <c r="M16">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>444</v>
+      </c>
+      <c r="C17">
+        <v>444</v>
+      </c>
+      <c r="D17">
+        <v>442</v>
+      </c>
+      <c r="E17">
+        <v>445</v>
+      </c>
+      <c r="F17">
+        <v>447</v>
+      </c>
+      <c r="G17">
+        <v>450</v>
+      </c>
+      <c r="H17">
+        <v>456</v>
+      </c>
+      <c r="I17">
+        <v>457</v>
+      </c>
+      <c r="J17">
+        <v>457</v>
+      </c>
+      <c r="K17">
+        <v>462</v>
+      </c>
+      <c r="L17">
+        <v>467</v>
+      </c>
+      <c r="M17">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>616</v>
+      </c>
+      <c r="C18">
+        <v>622</v>
+      </c>
+      <c r="D18">
+        <v>625</v>
+      </c>
+      <c r="E18">
+        <v>641</v>
+      </c>
+      <c r="F18">
+        <v>656</v>
+      </c>
+      <c r="G18">
+        <v>666</v>
+      </c>
+      <c r="H18">
+        <v>663</v>
+      </c>
+      <c r="I18">
+        <v>668</v>
+      </c>
+      <c r="J18">
+        <v>682</v>
+      </c>
+      <c r="K18">
+        <v>687</v>
+      </c>
+      <c r="L18">
+        <v>701</v>
+      </c>
+      <c r="M18">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>574</v>
+      </c>
+      <c r="C19">
+        <v>604</v>
+      </c>
+      <c r="D19">
+        <v>560</v>
+      </c>
+      <c r="E19">
+        <v>617</v>
+      </c>
+      <c r="F19">
+        <v>668</v>
+      </c>
+      <c r="G19">
+        <v>734</v>
+      </c>
+      <c r="H19">
+        <v>761</v>
+      </c>
+      <c r="I19">
+        <v>785</v>
+      </c>
+      <c r="J19">
+        <v>850</v>
+      </c>
+      <c r="K19">
+        <v>880</v>
+      </c>
+      <c r="L19">
+        <v>909</v>
+      </c>
+      <c r="M19">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>335</v>
+      </c>
+      <c r="C20">
+        <v>433</v>
+      </c>
+      <c r="D20">
+        <v>465</v>
+      </c>
+      <c r="E20">
+        <v>401</v>
+      </c>
+      <c r="F20">
+        <v>409</v>
+      </c>
+      <c r="G20">
+        <v>410</v>
+      </c>
+      <c r="H20">
+        <v>412</v>
+      </c>
+      <c r="I20">
+        <v>413</v>
+      </c>
+      <c r="J20">
+        <v>414</v>
+      </c>
+      <c r="K20">
+        <v>417</v>
+      </c>
+      <c r="L20">
+        <v>417</v>
+      </c>
+      <c r="M20">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>992</v>
+      </c>
+      <c r="C21">
+        <v>993</v>
+      </c>
+      <c r="D21">
+        <v>993</v>
+      </c>
+      <c r="E21">
+        <v>979</v>
+      </c>
+      <c r="F21">
+        <v>990</v>
+      </c>
+      <c r="G21">
+        <v>993</v>
+      </c>
+      <c r="H21">
+        <v>997</v>
+      </c>
+      <c r="I21">
+        <v>1002</v>
+      </c>
+      <c r="J21">
+        <v>1007</v>
+      </c>
+      <c r="K21">
+        <v>1010</v>
+      </c>
+      <c r="L21">
+        <v>1029</v>
+      </c>
+      <c r="M21">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>1125</v>
+      </c>
+      <c r="C22">
+        <v>1135</v>
+      </c>
+      <c r="D22">
+        <v>1080</v>
+      </c>
+      <c r="E22">
+        <v>1125</v>
+      </c>
+      <c r="F22">
+        <v>1181</v>
+      </c>
+      <c r="G22">
+        <v>1188</v>
+      </c>
+      <c r="H22">
+        <v>1190</v>
+      </c>
+      <c r="I22">
+        <v>1194</v>
+      </c>
+      <c r="J22">
+        <v>1202</v>
+      </c>
+      <c r="K22">
+        <v>1199</v>
+      </c>
+      <c r="L22">
+        <v>1408</v>
+      </c>
+      <c r="M22">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>156</v>
+      </c>
+      <c r="C23">
+        <v>154</v>
+      </c>
+      <c r="D23">
+        <v>159</v>
+      </c>
+      <c r="E23">
+        <v>167</v>
+      </c>
+      <c r="F23">
+        <v>171</v>
+      </c>
+      <c r="G23">
+        <v>178</v>
+      </c>
+      <c r="H23">
+        <v>194</v>
+      </c>
+      <c r="I23">
+        <v>183</v>
+      </c>
+      <c r="J23">
+        <v>187</v>
+      </c>
+      <c r="K23">
+        <v>195</v>
+      </c>
+      <c r="L23">
+        <v>204</v>
+      </c>
+      <c r="M23">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Данные скачивания таблиц/Общая площадь жилых помещений, тысяч квадратных метров.xlsx
+++ b/Данные скачивания таблиц/Общая площадь жилых помещений, тысяч квадратных метров.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
-    <t>Городские округа:</t>
+    <t>МО:</t>
   </si>
   <si>
     <t>2011</t>
